--- a/Fog/210,360,400.xlsx
+++ b/Fog/210,360,400.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Produkt</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>til montering oven på tagfodslægte</t>
+  </si>
+  <si>
+    <t>B &amp; C Toplægte holder</t>
+  </si>
+  <si>
+    <t>B &amp; C rygstensbeslag</t>
+  </si>
+  <si>
+    <t>B &amp; C tagstens bindere &amp; nakkekroge</t>
   </si>
 </sst>
 </file>
@@ -125,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -425,6 +434,38 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n">
+        <v>341.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="n">
+        <v>341.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Fog/210,360,400.xlsx
+++ b/Fog/210,360,400.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Produkt</t>
   </si>
@@ -80,10 +80,19 @@
     <t>B &amp; C Toplægte holder</t>
   </si>
   <si>
+    <t>monteres på taglægter 6 rækker af 24 sten på hver side af taget</t>
+  </si>
+  <si>
     <t>B &amp; C rygstensbeslag</t>
   </si>
   <si>
+    <t>monteres på toplægte med medfølgende beslag se tagstens vejledning</t>
+  </si>
+  <si>
     <t>B &amp; C tagstens bindere &amp; nakkekroge</t>
+  </si>
+  <si>
+    <t>monteres på toppen af spæret (til toplægte)</t>
   </si>
 </sst>
 </file>
@@ -134,7 +143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -227,7 +236,7 @@
         <v>5.4541258E7</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="6">
@@ -434,28 +443,34 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="n">
-        <v>341.0</v>
-      </c>
-    </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="n">
-        <v>12.0</v>
+      <c r="D19"/>
+      <c r="E19" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
         <v>12.0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -463,7 +478,34 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
         <v>341.0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24">
+        <f>SUM(E2:E100000)</f>
       </c>
     </row>
   </sheetData>
